--- a/src/assets/example-import-questions.xlsx
+++ b/src/assets/example-import-questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E029FABB-287E-4A47-BD9F-A466EC6BBED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A0BF28-DC04-4D40-A228-5D70F3948176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16240" xr2:uid="{37F81043-075F-DA41-8028-2C316E120A34}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>answer_1</t>
   </si>
@@ -83,7 +83,13 @@
     <t>Tumbuhan</t>
   </si>
   <si>
-    <t>Apa itu kucing?</t>
+    <t>answer_5</t>
+  </si>
+  <si>
+    <t>answer_5_status</t>
+  </si>
+  <si>
+    <t>Benda</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439CDEE7-A477-6D45-97BD-69D4676610AE}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,7 +465,7 @@
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -490,9 +496,14 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -523,36 +534,10 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="b">
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="b">
         <v>0</v>
       </c>
     </row>
